--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-205_業務階層定義(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-205_業務階層定義(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1549,16 +1549,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1686,6 +1676,13 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4267,9 +4264,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="21"/>
       <c r="J31" s="25"/>
-      <c r="R31" s="26" t="s">
-        <v>97</v>
-      </c>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21"/>
@@ -4309,20 +4304,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4797,7 +4796,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4973,7 +4972,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
@@ -5528,7 +5527,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -5536,7 +5535,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="39"/>
       <c r="I34" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
@@ -5578,7 +5577,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="39"/>
       <c r="I35" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
@@ -5620,7 +5619,7 @@
       <c r="G36" s="38"/>
       <c r="H36" s="39"/>
       <c r="I36" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
@@ -5662,7 +5661,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
       <c r="I37" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-205_業務階層定義(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-205_業務階層定義(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -1549,6 +1549,16 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1676,13 +1686,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4264,7 +4267,9 @@
       <c r="G31" s="24"/>
       <c r="H31" s="21"/>
       <c r="J31" s="25"/>
-      <c r="R31" s="26"/>
+      <c r="R31" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21"/>
@@ -4304,24 +4309,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4796,7 +4797,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4972,7 +4973,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
@@ -5527,7 +5528,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -5535,7 +5536,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="39"/>
       <c r="I34" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
@@ -5577,7 +5578,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="39"/>
       <c r="I35" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
@@ -5619,7 +5620,7 @@
       <c r="G36" s="38"/>
       <c r="H36" s="39"/>
       <c r="I36" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
@@ -5661,7 +5662,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
       <c r="I37" s="38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-205_業務階層定義(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-205_業務階層定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67099EBE-67B3-45E6-B64A-9C42451DCA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1549,17 +1560,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>各レベルの業務名称を記述する。</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -1676,13 +1676,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1690,7 +1683,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -2199,13 +2192,22 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,13 +2219,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2235,46 +2237,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,6 +2278,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2389,6 +2382,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2410,7 +2406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2508,52 +2510,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2574,7 +2530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2661,7 +2623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2743,7 +2711,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2807,7 +2781,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2898,7 +2878,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2948,7 +2934,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3035,7 +3027,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="8" idx="1"/>
@@ -3087,7 +3085,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -3139,7 +3143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3221,7 +3231,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3285,7 +3301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3372,7 +3394,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3417,7 +3445,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3481,7 +3515,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3526,7 +3566,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3610,7 +3656,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3699,7 +3751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3786,7 +3844,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3831,7 +3895,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3884,7 +3954,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3926,7 +3996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3959,9 +4029,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3994,6 +4081,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4169,7 +4273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4278,58 +4382,47 @@
       <c r="R32" s="29"/>
       <c r="S32" s="30"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="31"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="31"/>
       <c r="R37" s="30"/>
       <c r="S37" s="32"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="31"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="31"/>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>98</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="33"/>
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
-      <c r="R39" s="31" t="s">
-        <v>99</v>
-      </c>
+      <c r="R39" s="31"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4792,17 +4885,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4878,217 +4968,217 @@
       <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="40" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="40" t="s">
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="42"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="45"/>
     </row>
     <row r="17" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16">
         <v>1</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="46" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="48"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="51"/>
     </row>
     <row r="18" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16">
         <f t="shared" ref="B18:B20" si="0">B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="43" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="45"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="42"/>
     </row>
     <row r="19" spans="2:34" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="43" t="s">
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="45"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="42"/>
     </row>
     <row r="20" spans="2:34" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="43" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="45"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="42"/>
     </row>
     <row r="21" spans="2:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
@@ -5105,631 +5195,631 @@
       <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="41" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="40" t="s">
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="42"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="45"/>
     </row>
     <row r="25" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B25" s="35">
         <v>1</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="50" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="51"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="39"/>
     </row>
     <row r="26" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="36">
         <f t="shared" ref="B26" si="1">B25+1</f>
         <v>2</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="39"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="48"/>
     </row>
     <row r="27" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="36">
         <f t="shared" ref="B27:B38" si="2">B26+1</f>
         <v>3</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="38" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="39"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="48"/>
     </row>
     <row r="28" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="38" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="39"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="48"/>
     </row>
     <row r="29" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="38" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="39"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="48"/>
     </row>
     <row r="30" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="38" t="s">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="39"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="48"/>
     </row>
     <row r="31" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="36">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="38" t="s">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="39"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="48"/>
     </row>
     <row r="32" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="38" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="39"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="48"/>
     </row>
     <row r="33" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="36">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="38" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="39"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="48"/>
     </row>
     <row r="34" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="36">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="39"/>
+      <c r="C34" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="48"/>
     </row>
     <row r="35" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="36">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="39"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="48"/>
     </row>
     <row r="36" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="36">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="39"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="48"/>
     </row>
     <row r="37" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="36">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="39"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="48"/>
     </row>
     <row r="38" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="36">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="39"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="48"/>
     </row>
     <row r="39" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
@@ -5780,50 +5870,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="Z25:AH25"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:Y29"/>
-    <mergeCell ref="Z29:AH29"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:Y26"/>
-    <mergeCell ref="Z26:AH26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:Y27"/>
-    <mergeCell ref="Z27:AH27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:Y28"/>
-    <mergeCell ref="Z28:AH28"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:Y37"/>
-    <mergeCell ref="Z37:AH37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:Y38"/>
-    <mergeCell ref="Z38:AH38"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:Y35"/>
-    <mergeCell ref="Z35:AH35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:Y36"/>
-    <mergeCell ref="Z36:AH36"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="Z34:AH34"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="I32:Y32"/>
     <mergeCell ref="Z32:AH32"/>
@@ -5840,6 +5886,50 @@
     <mergeCell ref="I18:Y18"/>
     <mergeCell ref="Z18:AH18"/>
     <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="Z34:AH34"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:Y35"/>
+    <mergeCell ref="Z35:AH35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:Y36"/>
+    <mergeCell ref="Z36:AH36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:Y37"/>
+    <mergeCell ref="Z37:AH37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:Y38"/>
+    <mergeCell ref="Z38:AH38"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:Y29"/>
+    <mergeCell ref="Z29:AH29"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="Z26:AH26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:Y27"/>
+    <mergeCell ref="Z27:AH27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:Y28"/>
+    <mergeCell ref="Z28:AH28"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="Z25:AH25"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5857,7 +5947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5874,690 +5964,741 @@
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:36" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="57" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="57" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="66" t="s">
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
     </row>
     <row r="4" spans="1:36" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
       <c r="AJ4" s="9"/>
     </row>
     <row r="5" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="68" t="s">
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="73"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="65"/>
     </row>
     <row r="6" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="43" t="s">
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="65"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="57"/>
     </row>
     <row r="7" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="43" t="s">
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="65"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="57"/>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="54" t="s">
+      <c r="N8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="43" t="s">
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="65"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="57"/>
     </row>
     <row r="9" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="54" t="s">
+      <c r="N9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="43" t="s">
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="65"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="57"/>
     </row>
     <row r="10" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="43" t="s">
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="65"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="57"/>
     </row>
     <row r="11" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="54" t="s">
+      <c r="N11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="43" t="s">
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="65"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="57"/>
     </row>
     <row r="12" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="43" t="s">
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="65"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="57"/>
     </row>
     <row r="13" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="43" t="s">
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="65"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="57"/>
     </row>
     <row r="14" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="54" t="s">
+      <c r="N14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="43" t="s">
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="65"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="57"/>
     </row>
     <row r="15" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="55" t="s">
+      <c r="N15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="43" t="s">
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="65"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="57"/>
     </row>
     <row r="16" spans="1:36" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
       <c r="M16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="55" t="s">
+      <c r="N16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="43" t="s">
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="65"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="57"/>
     </row>
     <row r="17" spans="1:34" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="55" t="s">
+      <c r="N17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="63" t="s">
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="65"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="57"/>
     </row>
     <row r="18" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="AC17:AH17"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="AC15:AH15"/>
+    <mergeCell ref="S16:AB16"/>
+    <mergeCell ref="AC16:AH16"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="AC3:AH4"/>
+    <mergeCell ref="S3:AB4"/>
+    <mergeCell ref="S5:AB5"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="S8:AB8"/>
+    <mergeCell ref="AC8:AH8"/>
+    <mergeCell ref="S6:AB6"/>
+    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AH7"/>
     <mergeCell ref="AC14:AH14"/>
     <mergeCell ref="S13:AB13"/>
     <mergeCell ref="AC13:AH13"/>
@@ -6570,62 +6711,11 @@
     <mergeCell ref="AC10:AH10"/>
     <mergeCell ref="S11:AB11"/>
     <mergeCell ref="AC11:AH11"/>
-    <mergeCell ref="AC3:AH4"/>
-    <mergeCell ref="S3:AB4"/>
-    <mergeCell ref="S5:AB5"/>
-    <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="S8:AB8"/>
-    <mergeCell ref="AC8:AH8"/>
-    <mergeCell ref="S6:AB6"/>
-    <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="S7:AB7"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="AC17:AH17"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="AC15:AH15"/>
-    <mergeCell ref="S16:AB16"/>
-    <mergeCell ref="AC16:AH16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="N14:R14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
